--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H2">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.793983</v>
+        <v>0.9210183333333334</v>
       </c>
       <c r="N2">
-        <v>2.381949</v>
+        <v>2.763055</v>
       </c>
       <c r="O2">
-        <v>0.6640413888965553</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="P2">
-        <v>0.6640413888965553</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="Q2">
-        <v>3.297949984134999</v>
+        <v>3.518681466125</v>
       </c>
       <c r="R2">
-        <v>29.681549857215</v>
+        <v>31.668133195125</v>
       </c>
       <c r="S2">
-        <v>0.01505853758783355</v>
+        <v>0.01382030196537266</v>
       </c>
       <c r="T2">
-        <v>0.01505853758783355</v>
+        <v>0.01382030196537266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H3">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.877231</v>
       </c>
       <c r="O3">
-        <v>0.2445550646227581</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="P3">
-        <v>0.2445550646227581</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="Q3">
-        <v>1.214578466009444</v>
+        <v>1.117131747725</v>
       </c>
       <c r="R3">
-        <v>10.931206194085</v>
+        <v>10.054185729525</v>
       </c>
       <c r="S3">
-        <v>0.005545801352889088</v>
+        <v>0.004387750990619376</v>
       </c>
       <c r="T3">
-        <v>0.005545801352889089</v>
+        <v>0.004387750990619376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H4">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08178166666666666</v>
+        <v>0.09519866666666667</v>
       </c>
       <c r="N4">
-        <v>0.245345</v>
+        <v>0.285596</v>
       </c>
       <c r="O4">
-        <v>0.06839744871062535</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="P4">
-        <v>0.06839744871062535</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="Q4">
-        <v>0.3396947368972221</v>
+        <v>0.3636993661</v>
       </c>
       <c r="R4">
-        <v>3.057252632075</v>
+        <v>3.2732942949</v>
       </c>
       <c r="S4">
-        <v>0.001551056258755759</v>
+        <v>0.001428499599212672</v>
       </c>
       <c r="T4">
-        <v>0.001551056258755759</v>
+        <v>0.001428499599212672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H5">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01528333333333333</v>
+        <v>0.05731766666666666</v>
       </c>
       <c r="N5">
-        <v>0.04585</v>
+        <v>0.171953</v>
       </c>
       <c r="O5">
-        <v>0.01278209469678279</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="P5">
-        <v>0.01278209469678279</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="Q5">
-        <v>0.06348205052777778</v>
+        <v>0.218977846675</v>
       </c>
       <c r="R5">
-        <v>0.57133845475</v>
+        <v>1.970800620075</v>
       </c>
       <c r="S5">
-        <v>0.0002898609283415255</v>
+        <v>0.0008600778427688641</v>
       </c>
       <c r="T5">
-        <v>0.0002898609283415255</v>
+        <v>0.0008600778427688641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.153678333333333</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H6">
-        <v>12.461035</v>
+        <v>421.767242</v>
       </c>
       <c r="I6">
-        <v>0.02267710693885585</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J6">
-        <v>0.02267710693885585</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01222466666666667</v>
+        <v>0.9210183333333334</v>
       </c>
       <c r="N6">
-        <v>0.036674</v>
+        <v>2.763055</v>
       </c>
       <c r="O6">
-        <v>0.01022400307327834</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="P6">
-        <v>0.01022400307327834</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="Q6">
-        <v>0.05077733306555555</v>
+        <v>129.4851207604789</v>
       </c>
       <c r="R6">
-        <v>0.4569959975899999</v>
+        <v>1165.36608684431</v>
       </c>
       <c r="S6">
-        <v>0.0002318508110359237</v>
+        <v>0.5085778539946388</v>
       </c>
       <c r="T6">
-        <v>0.0002318508110359237</v>
+        <v>0.5085778539946388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J7">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.793983</v>
+        <v>0.2924103333333333</v>
       </c>
       <c r="N7">
-        <v>2.381949</v>
+        <v>0.877231</v>
       </c>
       <c r="O7">
-        <v>0.6640413888965553</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="P7">
-        <v>0.6640413888965553</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="Q7">
-        <v>111.625340034962</v>
+        <v>41.10969994076689</v>
       </c>
       <c r="R7">
-        <v>1004.628060314658</v>
+        <v>369.987299466902</v>
       </c>
       <c r="S7">
-        <v>0.5096846182499197</v>
+        <v>0.1614662970652307</v>
       </c>
       <c r="T7">
-        <v>0.5096846182499198</v>
+        <v>0.1614662970652307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J8">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2924103333333333</v>
+        <v>0.09519866666666667</v>
       </c>
       <c r="N8">
-        <v>0.877231</v>
+        <v>0.285596</v>
       </c>
       <c r="O8">
-        <v>0.2445550646227581</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="P8">
-        <v>0.2445550646227581</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="Q8">
-        <v>41.10969994076689</v>
+        <v>13.38389302735911</v>
       </c>
       <c r="R8">
-        <v>369.987299466902</v>
+        <v>120.455037246232</v>
       </c>
       <c r="S8">
-        <v>0.1877081110267245</v>
+        <v>0.05256782828769346</v>
       </c>
       <c r="T8">
-        <v>0.1877081110267245</v>
+        <v>0.05256782828769347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J9">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08178166666666666</v>
+        <v>0.05731766666666666</v>
       </c>
       <c r="N9">
-        <v>0.245345</v>
+        <v>0.171953</v>
       </c>
       <c r="O9">
-        <v>0.06839744871062535</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="P9">
-        <v>0.06839744871062535</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="Q9">
-        <v>11.49760933205444</v>
+        <v>8.05823806262511</v>
       </c>
       <c r="R9">
-        <v>103.47848398849</v>
+        <v>72.524142563626</v>
       </c>
       <c r="S9">
-        <v>0.0524984257280599</v>
+        <v>0.03165028844085264</v>
       </c>
       <c r="T9">
-        <v>0.05249842572805991</v>
+        <v>0.03165028844085265</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.5890806666667</v>
+        <v>30.51067</v>
       </c>
       <c r="H10">
-        <v>421.767242</v>
+        <v>91.53201</v>
       </c>
       <c r="I10">
-        <v>0.7675494732291734</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J10">
-        <v>0.7675494732291737</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01528333333333333</v>
+        <v>0.9210183333333334</v>
       </c>
       <c r="N10">
-        <v>0.04585</v>
+        <v>2.763055</v>
       </c>
       <c r="O10">
-        <v>0.01278209469678279</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="P10">
-        <v>0.01278209469678279</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="Q10">
-        <v>2.148669782855555</v>
+        <v>28.10088643228334</v>
       </c>
       <c r="R10">
-        <v>19.3380280457</v>
+        <v>252.90797789055</v>
       </c>
       <c r="S10">
-        <v>0.009810890051281041</v>
+        <v>0.1103716661276786</v>
       </c>
       <c r="T10">
-        <v>0.009810890051281043</v>
+        <v>0.1103716661276786</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.5890806666667</v>
+        <v>30.51067</v>
       </c>
       <c r="H11">
-        <v>421.767242</v>
+        <v>91.53201</v>
       </c>
       <c r="I11">
-        <v>0.7675494732291734</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J11">
-        <v>0.7675494732291737</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01222466666666667</v>
+        <v>0.2924103333333333</v>
       </c>
       <c r="N11">
-        <v>0.036674</v>
+        <v>0.877231</v>
       </c>
       <c r="O11">
-        <v>0.01022400307327834</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="P11">
-        <v>0.01022400307327834</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="Q11">
-        <v>1.718654648123111</v>
+        <v>8.921635184923334</v>
       </c>
       <c r="R11">
-        <v>15.467891833108</v>
+        <v>80.29471666431</v>
       </c>
       <c r="S11">
-        <v>0.00784742817318824</v>
+        <v>0.03504144761825213</v>
       </c>
       <c r="T11">
-        <v>0.007847428173188242</v>
+        <v>0.03504144761825213</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H12">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.793983</v>
+        <v>0.09519866666666667</v>
       </c>
       <c r="N12">
-        <v>2.381949</v>
+        <v>0.285596</v>
       </c>
       <c r="O12">
-        <v>0.6640413888965553</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="P12">
-        <v>0.6640413888965553</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="Q12">
-        <v>5.655519736119999</v>
+        <v>2.904575103106667</v>
       </c>
       <c r="R12">
-        <v>50.89967762507999</v>
+        <v>26.14117592796</v>
       </c>
       <c r="S12">
-        <v>0.02582327110319552</v>
+        <v>0.01140828045746483</v>
       </c>
       <c r="T12">
-        <v>0.02582327110319553</v>
+        <v>0.01140828045746483</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H13">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2924103333333333</v>
+        <v>0.05731766666666666</v>
       </c>
       <c r="N13">
-        <v>0.877231</v>
+        <v>0.171953</v>
       </c>
       <c r="O13">
-        <v>0.2445550646227581</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="P13">
-        <v>0.2445550646227581</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="Q13">
-        <v>2.082831006724444</v>
+        <v>1.748800412836667</v>
       </c>
       <c r="R13">
-        <v>18.74547906052</v>
+        <v>15.73920371553</v>
       </c>
       <c r="S13">
-        <v>0.009510268243831967</v>
+        <v>0.006868751836518895</v>
       </c>
       <c r="T13">
-        <v>0.009510268243831969</v>
+        <v>0.006868751836518895</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.122973333333332</v>
+        <v>0.258813</v>
       </c>
       <c r="H14">
-        <v>21.36892</v>
+        <v>0.776439</v>
       </c>
       <c r="I14">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J14">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08178166666666666</v>
+        <v>0.9210183333333334</v>
       </c>
       <c r="N14">
-        <v>0.245345</v>
+        <v>2.763055</v>
       </c>
       <c r="O14">
-        <v>0.06839744871062535</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="P14">
-        <v>0.06839744871062535</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="Q14">
-        <v>0.5825286308222219</v>
+        <v>0.238371517905</v>
       </c>
       <c r="R14">
-        <v>5.242757677399998</v>
+        <v>2.145343661145</v>
       </c>
       <c r="S14">
-        <v>0.002659843031405586</v>
+        <v>0.0009362502372285788</v>
       </c>
       <c r="T14">
-        <v>0.002659843031405587</v>
+        <v>0.0009362502372285787</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.122973333333332</v>
+        <v>0.258813</v>
       </c>
       <c r="H15">
-        <v>21.36892</v>
+        <v>0.776439</v>
       </c>
       <c r="I15">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J15">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,43 +1364,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.01528333333333333</v>
+        <v>0.2924103333333333</v>
       </c>
       <c r="N15">
-        <v>0.04585</v>
+        <v>0.877231</v>
       </c>
       <c r="O15">
-        <v>0.01278209469678279</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="P15">
-        <v>0.01278209469678279</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="Q15">
-        <v>0.1088627757777778</v>
+        <v>0.075679595601</v>
       </c>
       <c r="R15">
-        <v>0.9797649819999998</v>
+        <v>0.681116360409</v>
       </c>
       <c r="S15">
-        <v>0.000497070667794111</v>
+        <v>0.0002972462480313506</v>
       </c>
       <c r="T15">
-        <v>0.000497070667794111</v>
+        <v>0.0002972462480313505</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.122973333333332</v>
+        <v>0.258813</v>
       </c>
       <c r="H16">
-        <v>21.36892</v>
+        <v>0.776439</v>
       </c>
       <c r="I16">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J16">
-        <v>0.03888804453304685</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01222466666666667</v>
+        <v>0.09519866666666667</v>
       </c>
       <c r="N16">
-        <v>0.036674</v>
+        <v>0.285596</v>
       </c>
       <c r="O16">
-        <v>0.01022400307327834</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="P16">
-        <v>0.01022400307327834</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="Q16">
-        <v>0.08707597467555553</v>
+        <v>0.024638652516</v>
       </c>
       <c r="R16">
-        <v>0.7836837720799998</v>
+        <v>0.221747872644</v>
       </c>
       <c r="S16">
-        <v>0.0003975914868196559</v>
+        <v>9.677307283117172E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003975914868196559</v>
+        <v>9.677307283117171E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H17">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I17">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J17">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,33 +1488,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.793983</v>
+        <v>0.05731766666666666</v>
       </c>
       <c r="N17">
-        <v>2.381949</v>
+        <v>0.171953</v>
       </c>
       <c r="O17">
-        <v>0.6640413888965553</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="P17">
-        <v>0.6640413888965553</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="Q17">
-        <v>0.3072719503220001</v>
+        <v>0.014834557263</v>
       </c>
       <c r="R17">
-        <v>2.765447552898</v>
+        <v>0.133511015367</v>
       </c>
       <c r="S17">
-        <v>0.001403012852186831</v>
+        <v>5.826559262923315E-05</v>
       </c>
       <c r="T17">
-        <v>0.001403012852186831</v>
+        <v>5.826559262923314E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,51 +1532,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3870006666666667</v>
+        <v>11.213844</v>
       </c>
       <c r="H18">
-        <v>1.161002</v>
+        <v>33.641532</v>
       </c>
       <c r="I18">
-        <v>0.002112839463995207</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J18">
-        <v>0.002112839463995208</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2924103333333333</v>
+        <v>0.9210183333333334</v>
       </c>
       <c r="N18">
-        <v>0.877231</v>
+        <v>2.763055</v>
       </c>
       <c r="O18">
-        <v>0.2445550646227581</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="P18">
-        <v>0.2445550646227581</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="Q18">
-        <v>0.1131629939402222</v>
+        <v>10.32815591114</v>
       </c>
       <c r="R18">
-        <v>1.018466945462</v>
+        <v>92.95340320026</v>
       </c>
       <c r="S18">
-        <v>0.0005167055916548616</v>
+        <v>0.04056582978924658</v>
       </c>
       <c r="T18">
-        <v>0.0005167055916548616</v>
+        <v>0.04056582978924658</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3870006666666667</v>
+        <v>11.213844</v>
       </c>
       <c r="H19">
-        <v>1.161002</v>
+        <v>33.641532</v>
       </c>
       <c r="I19">
-        <v>0.002112839463995207</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J19">
-        <v>0.002112839463995208</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,33 +1612,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.08178166666666666</v>
+        <v>0.2924103333333333</v>
       </c>
       <c r="N19">
-        <v>0.245345</v>
+        <v>0.877231</v>
       </c>
       <c r="O19">
-        <v>0.06839744871062535</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="P19">
-        <v>0.06839744871062535</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="Q19">
-        <v>0.03164955952111111</v>
+        <v>3.279043861988</v>
       </c>
       <c r="R19">
-        <v>0.28484603569</v>
+        <v>29.511394757892</v>
       </c>
       <c r="S19">
-        <v>0.0001445128288723974</v>
+        <v>0.01287907892960892</v>
       </c>
       <c r="T19">
-        <v>0.0001445128288723974</v>
+        <v>0.01287907892960891</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3870006666666667</v>
+        <v>11.213844</v>
       </c>
       <c r="H20">
-        <v>1.161002</v>
+        <v>33.641532</v>
       </c>
       <c r="I20">
-        <v>0.002112839463995207</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J20">
-        <v>0.002112839463995208</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,43 +1674,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.01528333333333333</v>
+        <v>0.09519866666666667</v>
       </c>
       <c r="N20">
-        <v>0.04585</v>
+        <v>0.285596</v>
       </c>
       <c r="O20">
-        <v>0.01278209469678279</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="P20">
-        <v>0.01278209469678279</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="Q20">
-        <v>0.00591466018888889</v>
+        <v>1.067542997008</v>
       </c>
       <c r="R20">
-        <v>0.05323194170000001</v>
+        <v>9.607886973072</v>
       </c>
       <c r="S20">
-        <v>2.700651410788653E-05</v>
+        <v>0.004192981581796115</v>
       </c>
       <c r="T20">
-        <v>2.700651410788653E-05</v>
+        <v>0.004192981581796115</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3870006666666667</v>
+        <v>11.213844</v>
       </c>
       <c r="H21">
-        <v>1.161002</v>
+        <v>33.641532</v>
       </c>
       <c r="I21">
-        <v>0.002112839463995207</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J21">
-        <v>0.002112839463995208</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.01222466666666667</v>
+        <v>0.05731766666666666</v>
       </c>
       <c r="N21">
-        <v>0.036674</v>
+        <v>0.171953</v>
       </c>
       <c r="O21">
-        <v>0.01022400307327834</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="P21">
-        <v>0.01022400307327834</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="Q21">
-        <v>0.004730954149777779</v>
+        <v>0.6427513724439999</v>
       </c>
       <c r="R21">
-        <v>0.042578587348</v>
+        <v>5.784762351995999</v>
       </c>
       <c r="S21">
-        <v>2.160167717323076E-05</v>
+        <v>0.002524530322324498</v>
       </c>
       <c r="T21">
-        <v>2.160167717323076E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>30.91341533333334</v>
-      </c>
-      <c r="H22">
-        <v>92.74024600000001</v>
-      </c>
-      <c r="I22">
-        <v>0.1687725358349285</v>
-      </c>
-      <c r="J22">
-        <v>0.1687725358349286</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.793983</v>
-      </c>
-      <c r="N22">
-        <v>2.381949</v>
-      </c>
-      <c r="O22">
-        <v>0.6640413888965553</v>
-      </c>
-      <c r="P22">
-        <v>0.6640413888965553</v>
-      </c>
-      <c r="Q22">
-        <v>24.544726246606</v>
-      </c>
-      <c r="R22">
-        <v>220.902536219454</v>
-      </c>
-      <c r="S22">
-        <v>0.1120719491034196</v>
-      </c>
-      <c r="T22">
-        <v>0.1120719491034196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>30.91341533333334</v>
-      </c>
-      <c r="H23">
-        <v>92.74024600000001</v>
-      </c>
-      <c r="I23">
-        <v>0.1687725358349285</v>
-      </c>
-      <c r="J23">
-        <v>0.1687725358349286</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.2924103333333333</v>
-      </c>
-      <c r="N23">
-        <v>0.877231</v>
-      </c>
-      <c r="O23">
-        <v>0.2445550646227581</v>
-      </c>
-      <c r="P23">
-        <v>0.2445550646227581</v>
-      </c>
-      <c r="Q23">
-        <v>9.039402082091778</v>
-      </c>
-      <c r="R23">
-        <v>81.35461873882601</v>
-      </c>
-      <c r="S23">
-        <v>0.04127417840765771</v>
-      </c>
-      <c r="T23">
-        <v>0.04127417840765771</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>30.91341533333334</v>
-      </c>
-      <c r="H24">
-        <v>92.74024600000001</v>
-      </c>
-      <c r="I24">
-        <v>0.1687725358349285</v>
-      </c>
-      <c r="J24">
-        <v>0.1687725358349286</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.08178166666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.245345</v>
-      </c>
-      <c r="O24">
-        <v>0.06839744871062535</v>
-      </c>
-      <c r="P24">
-        <v>0.06839744871062535</v>
-      </c>
-      <c r="Q24">
-        <v>2.528150628318889</v>
-      </c>
-      <c r="R24">
-        <v>22.75335565487</v>
-      </c>
-      <c r="S24">
-        <v>0.0115436108635317</v>
-      </c>
-      <c r="T24">
-        <v>0.01154361086353171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>30.91341533333334</v>
-      </c>
-      <c r="H25">
-        <v>92.74024600000001</v>
-      </c>
-      <c r="I25">
-        <v>0.1687725358349285</v>
-      </c>
-      <c r="J25">
-        <v>0.1687725358349286</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.01528333333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.04585</v>
-      </c>
-      <c r="O25">
-        <v>0.01278209469678279</v>
-      </c>
-      <c r="P25">
-        <v>0.01278209469678279</v>
-      </c>
-      <c r="Q25">
-        <v>0.4724600310111112</v>
-      </c>
-      <c r="R25">
-        <v>4.252140279100001</v>
-      </c>
-      <c r="S25">
-        <v>0.002157266535258223</v>
-      </c>
-      <c r="T25">
-        <v>0.002157266535258223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>30.91341533333334</v>
-      </c>
-      <c r="H26">
-        <v>92.74024600000001</v>
-      </c>
-      <c r="I26">
-        <v>0.1687725358349285</v>
-      </c>
-      <c r="J26">
-        <v>0.1687725358349286</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.01222466666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.036674</v>
-      </c>
-      <c r="O26">
-        <v>0.01022400307327834</v>
-      </c>
-      <c r="P26">
-        <v>0.01022400307327834</v>
-      </c>
-      <c r="Q26">
-        <v>0.3779061979782223</v>
-      </c>
-      <c r="R26">
-        <v>3.401155781804</v>
-      </c>
-      <c r="S26">
-        <v>0.001725530925061288</v>
-      </c>
-      <c r="T26">
-        <v>0.001725530925061288</v>
+        <v>0.002524530322324497</v>
       </c>
     </row>
   </sheetData>
